--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H2">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I2">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J2">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>18.76465591387733</v>
+        <v>48.6767612657661</v>
       </c>
       <c r="R2">
-        <v>168.881903224896</v>
+        <v>438.0908513918949</v>
       </c>
       <c r="S2">
-        <v>0.003306804168795409</v>
+        <v>0.0100327677541127</v>
       </c>
       <c r="T2">
-        <v>0.003306804168795408</v>
+        <v>0.0100327677541127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H3">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I3">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J3">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>287.2544432815468</v>
+        <v>301.3525784592338</v>
       </c>
       <c r="R3">
-        <v>2585.289989533921</v>
+        <v>2712.173206133104</v>
       </c>
       <c r="S3">
-        <v>0.05062145529915806</v>
+        <v>0.06211178297745224</v>
       </c>
       <c r="T3">
-        <v>0.05062145529915804</v>
+        <v>0.06211178297745226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H4">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I4">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J4">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>819.044533733833</v>
+        <v>1114.532821926694</v>
       </c>
       <c r="R4">
-        <v>7371.400803604497</v>
+        <v>10030.79539734025</v>
       </c>
       <c r="S4">
-        <v>0.1443362399508284</v>
+        <v>0.2297163711380785</v>
       </c>
       <c r="T4">
-        <v>0.1443362399508284</v>
+        <v>0.2297163711380785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H5">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I5">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J5">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>428.7626064094804</v>
+        <v>142.2016522601856</v>
       </c>
       <c r="R5">
-        <v>3858.863457685324</v>
+        <v>1279.81487034167</v>
       </c>
       <c r="S5">
-        <v>0.0755587515596223</v>
+        <v>0.02930918397771267</v>
       </c>
       <c r="T5">
-        <v>0.07555875155962227</v>
+        <v>0.02930918397771267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H6">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I6">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J6">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>1307.621854752412</v>
+        <v>1561.969168299786</v>
       </c>
       <c r="R6">
-        <v>11768.59669277171</v>
+        <v>14057.72251469807</v>
       </c>
       <c r="S6">
-        <v>0.2304358481364652</v>
+        <v>0.3219374809896708</v>
       </c>
       <c r="T6">
-        <v>0.2304358481364651</v>
+        <v>0.3219374809896708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H7">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I7">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J7">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>808.8976405515801</v>
+        <v>511.4592218666305</v>
       </c>
       <c r="R7">
-        <v>7280.078764964222</v>
+        <v>4603.132996799674</v>
       </c>
       <c r="S7">
-        <v>0.1425481022503881</v>
+        <v>0.1054168653635535</v>
       </c>
       <c r="T7">
-        <v>0.142548102250388</v>
+        <v>0.1054168653635535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.415244</v>
       </c>
       <c r="I8">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J8">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>0.1684938347093334</v>
+        <v>0.4166361285791111</v>
       </c>
       <c r="R8">
-        <v>1.516444512384</v>
+        <v>3.749725157212</v>
       </c>
       <c r="S8">
-        <v>2.969285008957134E-05</v>
+        <v>8.587287665226447E-05</v>
       </c>
       <c r="T8">
-        <v>2.969285008957134E-05</v>
+        <v>8.587287665226447E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.415244</v>
       </c>
       <c r="I9">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J9">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>2.579349331420889</v>
@@ -1013,10 +1013,10 @@
         <v>23.214143982788</v>
       </c>
       <c r="S9">
-        <v>0.0004545462043678805</v>
+        <v>0.0005316297166440979</v>
       </c>
       <c r="T9">
-        <v>0.0004545462043678804</v>
+        <v>0.0005316297166440979</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.415244</v>
       </c>
       <c r="I10">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J10">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>7.354462289099111</v>
+        <v>9.539554975044444</v>
       </c>
       <c r="R10">
-        <v>66.190160601892</v>
+        <v>85.85599477540001</v>
       </c>
       <c r="S10">
-        <v>0.001296041167419221</v>
+        <v>0.001966197771862071</v>
       </c>
       <c r="T10">
-        <v>0.00129604116741922</v>
+        <v>0.001966197771862071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.415244</v>
       </c>
       <c r="I11">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J11">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>3.849996294388444</v>
+        <v>1.217138205883556</v>
       </c>
       <c r="R11">
-        <v>34.649966649496</v>
+        <v>10.954243852952</v>
       </c>
       <c r="S11">
-        <v>0.0006784661469180088</v>
+        <v>0.0002508643678575054</v>
       </c>
       <c r="T11">
-        <v>0.0006784661469180086</v>
+        <v>0.0002508643678575054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.415244</v>
       </c>
       <c r="I12">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J12">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>11.74155399748222</v>
+        <v>13.36927047564356</v>
       </c>
       <c r="R12">
-        <v>105.67398597734</v>
+        <v>120.323434280792</v>
       </c>
       <c r="S12">
-        <v>0.002069157030387976</v>
+        <v>0.002755540472212569</v>
       </c>
       <c r="T12">
-        <v>0.002069157030387976</v>
+        <v>0.002755540472212569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.415244</v>
       </c>
       <c r="I13">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J13">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>7.263350096554222</v>
+        <v>4.377702718575556</v>
       </c>
       <c r="R13">
-        <v>65.37015086898801</v>
+        <v>39.39932446718</v>
       </c>
       <c r="S13">
-        <v>0.001279984908273392</v>
+        <v>0.0009022883513596697</v>
       </c>
       <c r="T13">
-        <v>0.001279984908273391</v>
+        <v>0.0009022883513596697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H14">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I14">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J14">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>1.970507569173333</v>
+        <v>5.837564366022999</v>
       </c>
       <c r="R14">
-        <v>17.73456812256</v>
+        <v>52.53807929420699</v>
       </c>
       <c r="S14">
-        <v>0.0003472529778479093</v>
+        <v>0.001203180450199394</v>
       </c>
       <c r="T14">
-        <v>0.0003472529778479091</v>
+        <v>0.001203180450199394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H15">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I15">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J15">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>30.16506443618555</v>
+        <v>36.13973131897699</v>
       </c>
       <c r="R15">
-        <v>271.4855799256699</v>
+        <v>325.257581870793</v>
       </c>
       <c r="S15">
-        <v>0.005315842789091099</v>
+        <v>0.00744876038567359</v>
       </c>
       <c r="T15">
-        <v>0.005315842789091098</v>
+        <v>0.00744876038567359</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H16">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I16">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J16">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>86.00922183811443</v>
+        <v>133.66043501785</v>
       </c>
       <c r="R16">
-        <v>774.0829965430298</v>
+        <v>1202.94391516065</v>
       </c>
       <c r="S16">
-        <v>0.01515698740411154</v>
+        <v>0.02754875360598123</v>
       </c>
       <c r="T16">
-        <v>0.01515698740411154</v>
+        <v>0.02754875360598123</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H17">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I17">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J17">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>45.02507081323777</v>
+        <v>17.053544164358</v>
       </c>
       <c r="R17">
-        <v>405.2256373191399</v>
+        <v>153.481897479222</v>
       </c>
       <c r="S17">
-        <v>0.007934549535513345</v>
+        <v>0.00351490615925256</v>
       </c>
       <c r="T17">
-        <v>0.007934549535513343</v>
+        <v>0.00351490615925256</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H18">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I18">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J18">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>137.3155348135388</v>
+        <v>187.319273521718</v>
       </c>
       <c r="R18">
-        <v>1235.83981332185</v>
+        <v>1685.873461695462</v>
       </c>
       <c r="S18">
-        <v>0.02419844973687854</v>
+        <v>0.0386083773497524</v>
       </c>
       <c r="T18">
-        <v>0.02419844973687854</v>
+        <v>0.0386083773497524</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H19">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I19">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J19">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>84.94367979401888</v>
+        <v>61.336786807595</v>
       </c>
       <c r="R19">
-        <v>764.4931181461699</v>
+        <v>552.031081268355</v>
       </c>
       <c r="S19">
-        <v>0.01496921210518713</v>
+        <v>0.01264212574588263</v>
       </c>
       <c r="T19">
-        <v>0.01496921210518713</v>
+        <v>0.01264212574588263</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H20">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I20">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J20">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N20">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O20">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P20">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q20">
-        <v>1.700074404501334</v>
+        <v>5.069332431573555</v>
       </c>
       <c r="R20">
-        <v>15.300669640512</v>
+        <v>45.623991884162</v>
       </c>
       <c r="S20">
-        <v>0.000299595854774496</v>
+        <v>0.001044840158462593</v>
       </c>
       <c r="T20">
-        <v>0.0002995958547744959</v>
+        <v>0.001044840158462593</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H21">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I21">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J21">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q21">
-        <v>26.02520018718155</v>
+        <v>31.38369027842644</v>
       </c>
       <c r="R21">
-        <v>234.226801684634</v>
+        <v>282.4532125058379</v>
       </c>
       <c r="S21">
-        <v>0.004586294620465781</v>
+        <v>0.006468492718966054</v>
       </c>
       <c r="T21">
-        <v>0.004586294620465779</v>
+        <v>0.006468492718966056</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H22">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I22">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J22">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N22">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q22">
-        <v>74.20528542267844</v>
+        <v>116.0705279753222</v>
       </c>
       <c r="R22">
-        <v>667.847568804106</v>
+        <v>1044.6347517779</v>
       </c>
       <c r="S22">
-        <v>0.01307683702320886</v>
+        <v>0.02392329768851397</v>
       </c>
       <c r="T22">
-        <v>0.01307683702320886</v>
+        <v>0.02392329768851397</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H23">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I23">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J23">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N23">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q23">
-        <v>38.84581396586978</v>
+        <v>14.80927302640578</v>
       </c>
       <c r="R23">
-        <v>349.612325692828</v>
+        <v>133.283457237652</v>
       </c>
       <c r="S23">
-        <v>0.006845609114931347</v>
+        <v>0.003052339412434745</v>
       </c>
       <c r="T23">
-        <v>0.006845609114931346</v>
+        <v>0.003052339412434745</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H24">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I24">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J24">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N24">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q24">
-        <v>118.4703016263189</v>
+        <v>162.6677855321658</v>
       </c>
       <c r="R24">
-        <v>1066.23271463687</v>
+        <v>1464.010069789492</v>
       </c>
       <c r="S24">
-        <v>0.02087744582657855</v>
+        <v>0.0335274589122635</v>
       </c>
       <c r="T24">
-        <v>0.02087744582657854</v>
+        <v>0.03352745891226351</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H25">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I25">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J25">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N25">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O25">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P25">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q25">
-        <v>73.2859787504149</v>
+        <v>53.26477673154778</v>
       </c>
       <c r="R25">
-        <v>659.5738087537341</v>
+        <v>479.3829905839299</v>
       </c>
       <c r="S25">
-        <v>0.01291483207357404</v>
+        <v>0.01097840366791449</v>
       </c>
       <c r="T25">
-        <v>0.01291483207357403</v>
+        <v>0.0109784036679145</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H26">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N26">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O26">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P26">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q26">
-        <v>1.091977962250667</v>
+        <v>1.415709385485222</v>
       </c>
       <c r="R26">
-        <v>9.827801660256002</v>
+        <v>12.741384469367</v>
       </c>
       <c r="S26">
-        <v>0.0001924339723774392</v>
+        <v>0.0002917918756825757</v>
       </c>
       <c r="T26">
-        <v>0.0001924339723774391</v>
+        <v>0.0002917918756825757</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H27">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I27">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J27">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q27">
-        <v>16.71629488234078</v>
+        <v>8.764504099514777</v>
       </c>
       <c r="R27">
-        <v>150.446653941067</v>
+        <v>78.880536895633</v>
       </c>
       <c r="S27">
-        <v>0.002945831453421832</v>
+        <v>0.001806452028110635</v>
       </c>
       <c r="T27">
-        <v>0.002945831453421832</v>
+        <v>0.001806452028110636</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H28">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I28">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J28">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N28">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q28">
-        <v>47.66293531008922</v>
+        <v>32.4149457647389</v>
       </c>
       <c r="R28">
-        <v>428.9664177908031</v>
+        <v>291.73451188265</v>
       </c>
       <c r="S28">
-        <v>0.008399407583267625</v>
+        <v>0.006681044797623019</v>
       </c>
       <c r="T28">
-        <v>0.008399407583267623</v>
+        <v>0.00668104479762302</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H29">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I29">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J29">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N29">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q29">
-        <v>24.95112723543489</v>
+        <v>4.135776672509111</v>
       </c>
       <c r="R29">
-        <v>224.560145118914</v>
+        <v>37.221990052582</v>
       </c>
       <c r="S29">
-        <v>0.004397015961121989</v>
+        <v>0.0008524249715714499</v>
       </c>
       <c r="T29">
-        <v>0.004397015961121988</v>
+        <v>0.00085242497157145</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H30">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I30">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J30">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N30">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q30">
-        <v>76.09488044440945</v>
+        <v>45.42813354666912</v>
       </c>
       <c r="R30">
-        <v>684.8539239996851</v>
+        <v>408.853201920022</v>
       </c>
       <c r="S30">
-        <v>0.01340983117582607</v>
+        <v>0.009363193062252598</v>
       </c>
       <c r="T30">
-        <v>0.01340983117582607</v>
+        <v>0.009363193062252599</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H31">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I31">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J31">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N31">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O31">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P31">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q31">
-        <v>47.07245372645745</v>
+        <v>14.87522180730611</v>
       </c>
       <c r="R31">
-        <v>423.6520835381171</v>
+        <v>133.876996265755</v>
       </c>
       <c r="S31">
-        <v>0.008295349881846815</v>
+        <v>0.003065932116329472</v>
       </c>
       <c r="T31">
-        <v>0.008295349881846813</v>
+        <v>0.003065932116329472</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H32">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I32">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J32">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N32">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O32">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P32">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q32">
-        <v>5.315494696437334</v>
+        <v>2.756958974470111</v>
       </c>
       <c r="R32">
-        <v>47.839452267936</v>
+        <v>24.812630770231</v>
       </c>
       <c r="S32">
-        <v>0.0009367238121531252</v>
+        <v>0.000568236841959498</v>
       </c>
       <c r="T32">
-        <v>0.0009367238121531248</v>
+        <v>0.000568236841959498</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H33">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I33">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J33">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>55.904827</v>
       </c>
       <c r="O33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q33">
-        <v>81.37103482200854</v>
+        <v>17.06803563052989</v>
       </c>
       <c r="R33">
-        <v>732.3393133980768</v>
+        <v>153.612320674769</v>
       </c>
       <c r="S33">
-        <v>0.0143396222346725</v>
+        <v>0.003517892995491013</v>
       </c>
       <c r="T33">
-        <v>0.01433962223467249</v>
+        <v>0.003517892995491013</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H34">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I34">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J34">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N34">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q34">
-        <v>232.0120813933214</v>
+        <v>63.12501460349445</v>
       </c>
       <c r="R34">
-        <v>2088.108732539893</v>
+        <v>568.1251314314501</v>
       </c>
       <c r="S34">
-        <v>0.04088636218450141</v>
+        <v>0.01301069739488274</v>
       </c>
       <c r="T34">
-        <v>0.0408863621845014</v>
+        <v>0.01301069739488274</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H35">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I35">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J35">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N35">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q35">
-        <v>121.4562830707038</v>
+        <v>8.054030530969557</v>
       </c>
       <c r="R35">
-        <v>1093.106547636334</v>
+        <v>72.486274778726</v>
       </c>
       <c r="S35">
-        <v>0.02140365083313747</v>
+        <v>0.001660016313751329</v>
       </c>
       <c r="T35">
-        <v>0.02140365083313746</v>
+        <v>0.001660016313751329</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H36">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I36">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J36">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N36">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q36">
-        <v>370.4121762628038</v>
+        <v>88.46695639584956</v>
       </c>
       <c r="R36">
-        <v>3333.709586365235</v>
+        <v>796.202607562646</v>
       </c>
       <c r="S36">
-        <v>0.06527593867215883</v>
+        <v>0.01823392527261241</v>
       </c>
       <c r="T36">
-        <v>0.06527593867215882</v>
+        <v>0.01823392527261241</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H37">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I37">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J37">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N37">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O37">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P37">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q37">
-        <v>229.1377544062919</v>
+        <v>28.96807542519056</v>
       </c>
       <c r="R37">
-        <v>2062.239789656627</v>
+        <v>260.712678826715</v>
       </c>
       <c r="S37">
-        <v>0.04037983350063883</v>
+        <v>0.005970610317267627</v>
       </c>
       <c r="T37">
-        <v>0.04037983350063882</v>
+        <v>0.005970610317267627</v>
       </c>
     </row>
   </sheetData>
